--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam4ky2\NCKH\Code\selenium\DoAn_VS1\src\test\java\com\utc\flowershop\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenHuong\git\Selenium_FlowerShop\src\test\java\com\utc\flowershop\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="521">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2099,6 +2099,9 @@
   </si>
   <si>
     <t>02/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng Nhập khi nhập Tên ĐN &lt; 30 ký tự c có trong CSDL,để trống mật khẩu </t>
   </si>
 </sst>
 </file>
@@ -3102,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3115,7 +3118,7 @@
     <col min="6" max="6" width="6.625" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="6.25" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="6.5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="5.125" customWidth="1" collapsed="1"/>
     <col min="12" max="13" width="6.5" customWidth="1" collapsed="1"/>
@@ -3813,7 +3816,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
@@ -4065,8 +4068,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4280,7 +4283,7 @@
         <v>260</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>270</v>
+        <v>520</v>
       </c>
       <c r="D8" s="121" t="s">
         <v>271</v>
@@ -7830,7 +7833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD45"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenHuong\git\Selenium_FlowerShop\src\test\java\com\utc\flowershop\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="5970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" Design" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="529">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2103,11 +2103,36 @@
   <si>
     <t xml:space="preserve">Đăng Nhập khi nhập Tên ĐN &lt; 30 ký tự c có trong CSDL,để trống mật khẩu </t>
   </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed : Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
+  </si>
+  <si>
+    <t>Failed : Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
+  </si>
+  <si>
+    <t>Failed : Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
+  </si>
+  <si>
+    <t>Error exception</t>
+  </si>
+  <si>
+    <t>Failed : Error exception</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3111,17 +3136,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="6.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="5.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="5.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" width="6.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
@@ -3822,9 +3847,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="73" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="73" width="6.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4067,24 +4092,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.75" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.375" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.375" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.25" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" style="2" collapsed="1"/>
-    <col min="11" max="16384" width="9" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="5.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="17.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="24.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="48.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="9.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="7.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="17.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="6.5" collapsed="true"/>
+    <col min="10" max="10" style="2" width="9.0" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.2">
@@ -5420,14 +5445,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" style="73" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.125" style="13" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="10" width="10.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="22.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="73" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="13" width="27.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6112,15 +6137,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.25" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="16.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6465,20 +6490,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -6673,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>301</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -6696,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>301</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
@@ -6719,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>301</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
@@ -6755,10 +6780,13 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6771,13 +6799,13 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -6796,18 +6824,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" style="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" style="21" collapsed="1"/>
-    <col min="5" max="5" width="9" style="10" collapsed="1"/>
-    <col min="6" max="6" width="8" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.75" style="24" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.375" style="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.875" style="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="4.75" style="10" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="3.75" style="10" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="17" width="13.0" collapsed="true"/>
+    <col min="4" max="4" style="21" width="9.0" collapsed="true"/>
+    <col min="5" max="5" style="10" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="8.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="24" width="12.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="13" width="17.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="13" width="15.875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="10" width="4.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="3.75" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="11.875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -7839,18 +7867,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="4.75" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.25" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="4.75" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="5.75" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="34.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="4.375" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="4.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="4.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="5.125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="4.75" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="5.75" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="5.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="529">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -6780,13 +6780,13 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>528</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6799,13 +6799,13 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>528</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Design" sheetId="6" r:id="rId1"/>
     <sheet name="Design_cart" sheetId="9" r:id="rId2"/>
     <sheet name="TestCase" sheetId="5" r:id="rId3"/>
     <sheet name="ShoppingCart" sheetId="11" r:id="rId4"/>
-    <sheet name="FlowerShop" sheetId="4" r:id="rId5"/>
-    <sheet name="LogIn" sheetId="8" r:id="rId6"/>
+    <sheet name="LogIn" sheetId="8" r:id="rId5"/>
+    <sheet name="FlowerShop" sheetId="4" r:id="rId6"/>
     <sheet name="Register" sheetId="2" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="512">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t>nguyenthihuongnguyenthihuongng</t>
   </si>
   <si>
-    <t>Failed : Đăng nhập không thành công khi tên tai khoan khong co trong CSDL || Đăng ký giới hạn độ dài Tên ĐN , Pass</t>
-  </si>
-  <si>
     <t>Kiểm tra link "Đăng ký "</t>
   </si>
   <si>
@@ -1620,47 +1617,10 @@
     <t>Click vào button "Date" Kiểm tra ngày khi click vào hiện ngày mặc định là ngày hệ thống</t>
   </si>
   <si>
-    <t>2.Hiển thị giao diện lịch bên dưới nút "Date" như sheet[giao diện lịch]
-2.1.Đầy đủ các chức năng của lịch "ngày/tháng /năm" để chọn hiển thị ngày mặc định là ngày của hệ thống</t>
-  </si>
-  <si>
     <t>Kiểm Tra Giỏ Hàng</t>
   </si>
   <si>
     <t>Kiểm Tra Giao diện Thanh Toán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra khi click một ngày bất kỳ hiển thị ngày tháng theo đúng định dạng </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click vào button"date"
-2.Click chọn ngày 
-Ví dụ : 23/02/2017
-3. Kiểm tra ngày hiển thị trên text box Ngày đặt hàng
-</t>
-  </si>
-  <si>
-    <t>2.Hiển thị giao diện lịch bên dưới nút "Date" như sheet[giao diện lịch]
-3.Ngày hiện thị trên textbox đúng định dạng</t>
-  </si>
-  <si>
-    <t>Kiểm tra danh sách năm ( Trước 10 năm sau 10 năm )</t>
-  </si>
-  <si>
-    <t>Kiểm tra danh sách tháng hiển thị đủ 12 tháng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Click vào button"date"
-2.
-</t>
-  </si>
-  <si>
-    <t>2.Hiển thị giao diện lịch bên dưới nút "Date" như sheet[giao diện lịch]
-3</t>
-  </si>
-  <si>
-    <t>2.Hiển thị giao diện lịch bên dưới nút "Date" như sheet[giao diện lịch]
-4</t>
   </si>
   <si>
     <t>1. Người dùng chưa vào được hệ thống</t>
@@ -1776,9 +1736,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra textbox "Ngày giao hàng"_Nếu ngày giao hàng chọn &gt; ngày giao hiện tại nhập đúng định dạng , nơi giao hàng = 300 ký tự </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiểm tra textbox "Ngày giao hàng"_Nếu ngày giao hàng chọn = ngày giao hiện tại nhập đúng định dạng , nơi giao hàng &lt; 300 ký tự </t>
   </si>
   <si>
@@ -1894,15 +1851,6 @@
     <t>Shop_TC28</t>
   </si>
   <si>
-    <t>Shop_TC29</t>
-  </si>
-  <si>
-    <t>Shop_TC30</t>
-  </si>
-  <si>
-    <t>Shop_TC31</t>
-  </si>
-  <si>
     <t>Số lượng</t>
   </si>
   <si>
@@ -2063,9 +2011,6 @@
     <t>2.Hiển thị thông báo lỗi "Khách hàng mua it nhất 1 sản phẩm để tiến hàng mua hàng"</t>
   </si>
   <si>
-    <t>Shop_TC32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Failed : Trong giỏ hàng không có sp vẫn click được vào thanh toan </t>
   </si>
   <si>
@@ -2098,34 +2043,28 @@
     <t>nguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuongnguyenthihuong</t>
   </si>
   <si>
-    <t>02/04/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đăng Nhập khi nhập Tên ĐN &lt; 30 ký tự c có trong CSDL,để trống mật khẩu </t>
   </si>
   <si>
-    <t xml:space="preserve">Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
-  </si>
-  <si>
     <t xml:space="preserve">Failed : Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
   </si>
   <si>
-    <t>Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
-  </si>
-  <si>
     <t>Failed : Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
   </si>
   <si>
-    <t>Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
-  </si>
-  <si>
     <t>Failed : Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
   </si>
   <si>
-    <t>Error exception</t>
-  </si>
-  <si>
-    <t>Failed : Error exception</t>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra textbox "Ngày giao hàng"_Nếu ngày giao hàng chọn &gt; ngày giao hiện tại nhập đúng định dạng , nơi giao hàng &lt; 300 ký tự </t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2287,6 +2226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,7 +2407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2840,6 +2785,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2851,6 +2805,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -3130,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3170,36 +3125,36 @@
         <v>248</v>
       </c>
       <c r="D2" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="G2" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="H2" s="80" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="I2" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="80" t="s">
-        <v>352</v>
-      </c>
       <c r="J2" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="80" t="s">
         <v>354</v>
       </c>
-      <c r="K2" s="80" t="s">
-        <v>355</v>
-      </c>
       <c r="L2" s="80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="82" t="s">
         <v>251</v>
@@ -3424,7 +3379,7 @@
     </row>
     <row r="14" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B14" s="90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C14" s="95"/>
       <c r="D14" s="83"/>
@@ -3445,10 +3400,10 @@
     </row>
     <row r="15" spans="2:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="90" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="96" t="s">
         <v>345</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>346</v>
       </c>
       <c r="D15" s="83" t="s">
         <v>257</v>
@@ -3487,7 +3442,7 @@
     </row>
     <row r="17" spans="2:13" s="57" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B17" s="115" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.25">
@@ -3496,40 +3451,40 @@
         <v>248</v>
       </c>
       <c r="D18" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="111" t="s">
         <v>347</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="F18" s="111" t="s">
         <v>348</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="G18" s="111" t="s">
         <v>349</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="H18" s="111" t="s">
         <v>350</v>
       </c>
-      <c r="H18" s="111" t="s">
+      <c r="I18" s="111" t="s">
         <v>351</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="J18" s="111" t="s">
         <v>352</v>
       </c>
-      <c r="J18" s="111" t="s">
+      <c r="K18" s="111" t="s">
         <v>353</v>
       </c>
-      <c r="K18" s="111" t="s">
+      <c r="L18" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="L18" s="111" t="s">
+      <c r="M18" s="111" t="s">
         <v>355</v>
-      </c>
-      <c r="M18" s="111" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="104"/>
       <c r="C19" s="105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>257</v>
@@ -3546,10 +3501,10 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>338</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>339</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58" t="s">
@@ -3567,7 +3522,7 @@
     <row r="21" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B21" s="108"/>
       <c r="C21" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="109"/>
       <c r="E21" s="58"/>
@@ -3585,7 +3540,7 @@
     <row r="22" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="108"/>
       <c r="C22" s="110" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D22" s="109"/>
       <c r="E22" s="58"/>
@@ -3609,7 +3564,7 @@
     <row r="23" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="75"/>
       <c r="C23" s="99" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -3627,7 +3582,7 @@
     <row r="24" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B24" s="75"/>
       <c r="C24" s="99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -3647,7 +3602,7 @@
     <row r="25" spans="2:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="76"/>
       <c r="C25" s="99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
@@ -3666,10 +3621,10 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -3687,7 +3642,7 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="75"/>
       <c r="C27" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
@@ -3705,7 +3660,7 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="75"/>
       <c r="C28" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
@@ -3725,7 +3680,7 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="75"/>
       <c r="C29" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -3744,7 +3699,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="106" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C30" s="101"/>
       <c r="D30" s="58" t="s">
@@ -3780,7 +3735,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C31" s="102"/>
       <c r="D31" s="58"/>
@@ -3804,7 +3759,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="106" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="58" t="s">
@@ -3841,8 +3796,8 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A23"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3854,11 +3809,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3866,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3878,7 +3833,7 @@
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3887,7 +3842,7 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3896,7 +3851,7 @@
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3904,10 +3859,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3916,7 +3871,7 @@
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="60" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3925,7 +3880,7 @@
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -3934,7 +3889,7 @@
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3942,13 +3897,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>160</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3957,7 +3912,7 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3966,7 +3921,7 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3992,10 +3947,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -4003,10 +3958,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4014,10 +3969,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="10" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -4025,10 +3980,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -4036,10 +3991,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
@@ -4050,7 +4005,7 @@
         <v>176</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
@@ -4058,10 +4013,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4070,7 +4025,7 @@
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4079,7 +4034,7 @@
       </c>
       <c r="B23" s="62"/>
       <c r="C23" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4090,11 +4045,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4155,10 +4110,10 @@
         <v>264</v>
       </c>
       <c r="D2" s="121" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F2" s="121" t="s">
         <v>281</v>
@@ -4181,10 +4136,10 @@
         <v>266</v>
       </c>
       <c r="D3" s="121" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E3" s="121" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F3" s="121" t="s">
         <v>281</v>
@@ -4207,10 +4162,10 @@
         <v>267</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E4" s="121" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F4" s="121" t="s">
         <v>281</v>
@@ -4233,10 +4188,10 @@
         <v>265</v>
       </c>
       <c r="D5" s="121" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F5" s="121" t="s">
         <v>281</v>
@@ -4259,10 +4214,10 @@
         <v>268</v>
       </c>
       <c r="D6" s="121" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E6" s="121" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F6" s="121" t="s">
         <v>281</v>
@@ -4308,7 +4263,7 @@
         <v>260</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="D8" s="121" t="s">
         <v>271</v>
@@ -4446,13 +4401,13 @@
         <v>260</v>
       </c>
       <c r="C13" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="E13" s="121" t="s">
         <v>303</v>
-      </c>
-      <c r="E13" s="121" t="s">
-        <v>304</v>
       </c>
       <c r="F13" s="121" t="s">
         <v>281</v>
@@ -4472,10 +4427,10 @@
         <v>260</v>
       </c>
       <c r="C14" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="121" t="s">
         <v>305</v>
-      </c>
-      <c r="D14" s="121" t="s">
-        <v>306</v>
       </c>
       <c r="E14" s="121"/>
       <c r="F14" s="121" t="s">
@@ -4535,16 +4490,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C18" s="133" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>281</v>
@@ -4553,7 +4508,7 @@
         <v>218</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I18" s="134"/>
       <c r="J18" s="125"/>
@@ -4563,16 +4518,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D19" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>365</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>366</v>
       </c>
       <c r="F19" s="35" t="s">
         <v>281</v>
@@ -4581,7 +4536,7 @@
         <v>218</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I19" s="134"/>
       <c r="J19" s="125"/>
@@ -4591,16 +4546,16 @@
         <v>3</v>
       </c>
       <c r="B20" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>281</v>
@@ -4609,7 +4564,7 @@
         <v>218</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I20" s="134"/>
       <c r="J20" s="125"/>
@@ -4619,16 +4574,16 @@
         <v>4</v>
       </c>
       <c r="B21" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C21" s="135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>368</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>369</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>281</v>
@@ -4637,7 +4592,7 @@
         <v>218</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I21" s="134"/>
       <c r="J21" s="125"/>
@@ -4647,16 +4602,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>281</v>
@@ -4675,16 +4630,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C23" s="135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>381</v>
       </c>
       <c r="F23" s="35" t="s">
         <v>281</v>
@@ -4703,16 +4658,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C24" s="135" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>281</v>
@@ -4731,16 +4686,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C25" s="135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>281</v>
@@ -4759,13 +4714,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>162</v>
@@ -4777,7 +4732,7 @@
         <v>218</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I26" s="134"/>
       <c r="J26" s="126"/>
@@ -4787,13 +4742,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>162</v>
@@ -4805,7 +4760,7 @@
         <v>218</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I27" s="134"/>
       <c r="J27" s="126"/>
@@ -4815,16 +4770,16 @@
         <v>11</v>
       </c>
       <c r="B28" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="E28" s="35" t="s">
         <v>388</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>389</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>281</v>
@@ -4833,7 +4788,7 @@
         <v>218</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I28" s="134"/>
       <c r="J28" s="125"/>
@@ -4843,16 +4798,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D29" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>385</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>386</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>281</v>
@@ -4861,7 +4816,7 @@
         <v>218</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I29" s="134"/>
       <c r="J29" s="125"/>
@@ -4871,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>245</v>
@@ -4880,7 +4835,7 @@
         <v>246</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>281</v>
@@ -4889,7 +4844,7 @@
         <v>218</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="I30" s="134"/>
       <c r="J30" s="126"/>
@@ -4899,13 +4854,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>168</v>
@@ -4917,7 +4872,7 @@
         <v>218</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="I31" s="134"/>
       <c r="J31" s="126"/>
@@ -4927,7 +4882,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>170</v>
@@ -4945,7 +4900,7 @@
         <v>218</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="I32" s="134"/>
       <c r="J32" s="126"/>
@@ -4955,16 +4910,16 @@
         <v>16</v>
       </c>
       <c r="B33" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D33" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>392</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>393</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>281</v>
@@ -4981,16 +4936,16 @@
         <v>17</v>
       </c>
       <c r="B34" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>281</v>
@@ -5007,16 +4962,16 @@
         <v>18</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>174</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F35" s="35" t="s">
         <v>281</v>
@@ -5033,16 +4988,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="132" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="D36" s="35" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>281</v>
@@ -5051,7 +5006,7 @@
         <v>218</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I36" s="134"/>
       <c r="J36" s="126"/>
@@ -5061,16 +5016,16 @@
         <v>20</v>
       </c>
       <c r="B37" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F37" s="35" t="s">
         <v>281</v>
@@ -5079,7 +5034,7 @@
         <v>218</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I37" s="134"/>
       <c r="J37" s="126"/>
@@ -5089,16 +5044,16 @@
         <v>21</v>
       </c>
       <c r="B38" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>281</v>
@@ -5107,7 +5062,7 @@
         <v>218</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I38" s="134"/>
       <c r="J38" s="126"/>
@@ -5117,16 +5072,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F39" s="35" t="s">
         <v>281</v>
@@ -5135,7 +5090,7 @@
         <v>218</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="I39" s="134"/>
       <c r="J39" s="126"/>
@@ -5145,16 +5100,16 @@
         <v>23</v>
       </c>
       <c r="B40" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F40" s="35" t="s">
         <v>281</v>
@@ -5163,7 +5118,7 @@
         <v>218</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I40" s="134"/>
       <c r="J40" s="126"/>
@@ -5173,16 +5128,16 @@
         <v>24</v>
       </c>
       <c r="B41" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F41" s="35" t="s">
         <v>281</v>
@@ -5191,7 +5146,7 @@
         <v>218</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I41" s="134"/>
       <c r="J41" s="126"/>
@@ -5201,16 +5156,16 @@
         <v>25</v>
       </c>
       <c r="B42" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>281</v>
@@ -5219,7 +5174,7 @@
         <v>218</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I42" s="134"/>
       <c r="J42" s="126"/>
@@ -5229,16 +5184,16 @@
         <v>26</v>
       </c>
       <c r="B43" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>281</v>
@@ -5247,7 +5202,7 @@
         <v>218</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I43" s="134"/>
       <c r="J43" s="126"/>
@@ -5257,13 +5212,13 @@
         <v>27</v>
       </c>
       <c r="B44" s="132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>188</v>
@@ -5275,7 +5230,7 @@
         <v>218</v>
       </c>
       <c r="H44" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I44" s="134"/>
       <c r="J44" s="126"/>
@@ -5285,13 +5240,13 @@
         <v>28</v>
       </c>
       <c r="B45" s="136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>192</v>
@@ -5303,129 +5258,17 @@
         <v>218</v>
       </c>
       <c r="H45" s="36" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I45" s="134"/>
       <c r="J45" s="126"/>
     </row>
-    <row r="46" spans="1:10" s="39" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="131">
-        <v>29</v>
-      </c>
-      <c r="B46" s="132" t="s">
-        <v>397</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I46" s="134"/>
-      <c r="J46" s="126"/>
-    </row>
-    <row r="47" spans="1:10" s="39" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="131">
-        <v>30</v>
-      </c>
-      <c r="B47" s="132" t="s">
-        <v>398</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I47" s="134"/>
-      <c r="J47" s="126"/>
-    </row>
-    <row r="48" spans="1:10" s="39" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A48" s="131">
-        <v>31</v>
-      </c>
-      <c r="B48" s="132" t="s">
-        <v>398</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="F48" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I48" s="134"/>
-      <c r="J48" s="126"/>
-    </row>
-    <row r="49" spans="1:10" s="39" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A49" s="131">
-        <v>32</v>
-      </c>
-      <c r="B49" s="136" t="s">
-        <v>398</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F49" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I49" s="134"/>
-      <c r="J49" s="126"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F18:F49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F18:F45">
       <formula1>"Low,Critical,Height,Medium"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14 I18:I49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14 I18:I45">
       <formula1>"Passed, Failed, Not Test"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5436,11 +5279,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5463,13 +5306,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>1</v>
@@ -5483,10 +5326,10 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5503,10 +5346,10 @@
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5523,10 +5366,10 @@
     </row>
     <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5543,10 +5386,10 @@
     </row>
     <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5563,10 +5406,10 @@
     </row>
     <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5583,10 +5426,10 @@
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5603,10 +5446,10 @@
     </row>
     <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5623,10 +5466,10 @@
     </row>
     <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5643,13 +5486,13 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
@@ -5660,18 +5503,18 @@
         <v>3</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -5682,15 +5525,15 @@
         <v>3</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5702,18 +5545,18 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>244</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -5729,13 +5572,13 @@
     </row>
     <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
@@ -5746,12 +5589,12 @@
         <v>3</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>166</v>
@@ -5771,7 +5614,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>170</v>
@@ -5791,10 +5634,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5811,10 +5654,10 @@
     </row>
     <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5826,15 +5669,15 @@
         <v>3</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5851,15 +5694,15 @@
     </row>
     <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -5873,17 +5716,17 @@
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
         <v>117</v>
@@ -5892,22 +5735,22 @@
         <v>3</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="23" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F22" t="s">
         <v>117</v>
@@ -5916,19 +5759,19 @@
         <v>3</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="23" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s">
@@ -5938,19 +5781,19 @@
         <v>3</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="23" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s">
@@ -5960,22 +5803,22 @@
         <v>3</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="23" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="F25" t="s">
         <v>117</v>
@@ -5984,22 +5827,22 @@
         <v>3</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>426</v>
+        <v>451</v>
+      </c>
+      <c r="B26" s="141" t="s">
+        <v>416</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>518</v>
+      <c r="D26" s="140" t="s">
+        <v>508</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -6011,117 +5854,77 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
+      <c r="D27" s="139" t="s">
+        <v>509</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
       <c r="G27" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>433</v>
+        <v>453</v>
+      </c>
+      <c r="B28" s="141" t="s">
+        <v>422</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
+      <c r="D28" s="139" t="s">
+        <v>508</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
       <c r="G28" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="139" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
       <c r="G29" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="11"/>
+      <c r="H29" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6130,6 +5933,333 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="28.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -6483,333 +6613,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="10.875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="28.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7887,46 +7690,46 @@
         <v>248</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="H2" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="I2" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="J2" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="K2" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="L2" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="M2" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="N2" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="N2" s="58" t="s">
-        <v>357</v>
-      </c>
       <c r="O2" s="58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="104"/>
       <c r="C3" s="107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="58" t="s">
         <v>257</v>
@@ -7945,10 +7748,10 @@
     </row>
     <row r="4" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>338</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>339</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="58" t="s">
@@ -7968,7 +7771,7 @@
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="75"/>
       <c r="C5" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
@@ -7988,7 +7791,7 @@
     <row r="6" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="75"/>
       <c r="C6" s="97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="58"/>
       <c r="E6" s="58"/>
@@ -8010,7 +7813,7 @@
     <row r="7" spans="2:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="75"/>
       <c r="C7" s="97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="58"/>
@@ -8030,7 +7833,7 @@
     <row r="8" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
@@ -8052,7 +7855,7 @@
     <row r="9" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="76"/>
       <c r="C9" s="98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -8073,10 +7876,10 @@
     </row>
     <row r="10" spans="2:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B10" s="74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
@@ -8096,7 +7899,7 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
@@ -8116,7 +7919,7 @@
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="75"/>
       <c r="C12" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
@@ -8140,7 +7943,7 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="75"/>
       <c r="C13" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
@@ -8163,7 +7966,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="58" t="s">
@@ -8205,7 +8008,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="58"/>
@@ -8235,7 +8038,7 @@
     </row>
     <row r="16" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="58" t="s">

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="514">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2065,6 +2065,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra textbox "Ngày giao hàng"_Nếu ngày giao hàng chọn &gt; ngày giao hiện tại nhập đúng định dạng , nơi giao hàng &lt; 300 ký tự </t>
+  </si>
+  <si>
+    <t>Failed : ERROR Số Lượng</t>
+  </si>
+  <si>
+    <t>Failed : ERROR Thành Tiền</t>
   </si>
 </sst>
 </file>
@@ -2407,7 +2413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2795,6 +2801,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4048,8 +4085,8 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4905,31 +4942,31 @@
       <c r="I32" s="134"/>
       <c r="J32" s="126"/>
     </row>
-    <row r="33" spans="1:10" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="131">
+    <row r="33" spans="1:10" s="148" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="142">
         <v>16</v>
       </c>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="143" t="s">
         <v>395</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="144" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="144" t="s">
         <v>392</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="144" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="126"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" s="39" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="131">
@@ -5282,8 +5319,8 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5632,20 +5669,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="149" t="s">
         <v>442</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1" t="s">
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="152" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="138" t="s">

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name=" Design" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="518">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2067,10 +2067,22 @@
     <t xml:space="preserve">Kiểm tra textbox "Ngày giao hàng"_Nếu ngày giao hàng chọn &gt; ngày giao hiện tại nhập đúng định dạng , nơi giao hàng &lt; 300 ký tự </t>
   </si>
   <si>
-    <t>Failed : ERROR Số Lượng</t>
-  </si>
-  <si>
-    <t>Failed : ERROR Thành Tiền</t>
+    <t>STT(+A17:J21TC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed : TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
+  </si>
+  <si>
+    <t>Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
   </si>
 </sst>
 </file>
@@ -2163,14 +2175,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2180,6 +2184,14 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -2413,7 +2425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2727,42 +2739,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2775,9 +2775,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2817,7 +2814,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2832,6 +2829,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4085,400 +4115,400 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="5.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="17.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="24.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="48.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="13.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="25.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="39.125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="3" width="30.375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="3" width="9.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="7.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="17.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="22.25" collapsed="true"/>
     <col min="9" max="9" customWidth="true" style="3" width="6.5" collapsed="true"/>
-    <col min="10" max="10" style="2" width="9.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="6.25" collapsed="true"/>
     <col min="11" max="16384" style="3" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="148" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="148" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="49" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119">
+      <c r="A2" s="150">
         <v>1</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="151" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="121" t="s">
+      <c r="E2" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G2" s="121" t="s">
+      <c r="G2" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="121"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-    </row>
-    <row r="3" spans="1:10" s="49" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="119">
+      <c r="H2" s="151"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+    </row>
+    <row r="3" spans="1:10" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A3" s="150">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="151" t="s">
         <v>406</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H3" s="121"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="119">
-        <v>3</v>
-      </c>
-      <c r="B4" s="120" t="s">
+      <c r="H3" s="151"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="122"/>
+    </row>
+    <row r="4" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="150">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="151" t="s">
         <v>407</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="125"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="119">
+      <c r="H4" s="151"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="122"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="150">
         <v>4</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="151" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="121" t="s">
+      <c r="G5" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="126"/>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="119">
+      <c r="H5" s="151"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="123"/>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="150">
         <v>5</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="151" t="s">
         <v>409</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H6" s="121"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="126"/>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A7" s="119">
+      <c r="H6" s="151"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="123"/>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A7" s="150">
         <v>6</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F7" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="126"/>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="119">
+      <c r="H7" s="151"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="123"/>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A8" s="150">
         <v>7</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="48" t="s">
         <v>504</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="151" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="126"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="1:10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="119">
+      <c r="A9" s="150">
         <v>8</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H9" s="121" t="s">
+      <c r="H9" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="126"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="1:10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="119">
+      <c r="A10" s="150">
         <v>9</v>
       </c>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="151" t="s">
         <v>276</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="I10" s="123"/>
-      <c r="J10" s="126"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:10" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="119">
+      <c r="A11" s="150">
         <v>10</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="151" t="s">
         <v>284</v>
       </c>
-      <c r="I11" s="123"/>
-      <c r="J11" s="126"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" spans="1:10" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="119">
+      <c r="A12" s="117">
         <v>11</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="118" t="s">
         <v>278</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="119" t="s">
         <v>263</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="H12" s="121" t="s">
+      <c r="H12" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="I12" s="123"/>
-      <c r="J12" s="126"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="1:10" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A13" s="119">
+      <c r="A13" s="117">
         <v>12</v>
       </c>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="119" t="s">
         <v>302</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="119" t="s">
         <v>303</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="126"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="119">
+      <c r="A14" s="117">
         <v>13</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121" t="s">
+      <c r="E14" s="119"/>
+      <c r="F14" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="126"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="116"/>
@@ -4490,13 +4520,13 @@
       <c r="G16" s="116"/>
       <c r="H16" s="116"/>
       <c r="I16" s="116"/>
-      <c r="J16" s="127"/>
+      <c r="J16" s="124"/>
     </row>
     <row r="17" spans="1:10" s="51" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="129" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="125" t="s">
         <v>145</v>
       </c>
       <c r="C17" s="50" t="s">
@@ -4512,220 +4542,222 @@
         <v>149</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="H17" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="130" t="s">
+      <c r="I17" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="128"/>
+      <c r="J17" s="126" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="18" spans="1:10" s="37" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131">
+      <c r="A18" s="153">
         <v>1</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="155" t="s">
         <v>369</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="151" t="s">
         <v>363</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="151" t="s">
         <v>362</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="I18" s="134"/>
-      <c r="J18" s="125"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="122"/>
     </row>
     <row r="19" spans="1:10" s="37" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131">
+      <c r="A19" s="153">
         <v>2</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="158" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="151" t="s">
         <v>364</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="I19" s="134"/>
-      <c r="J19" s="125"/>
-    </row>
-    <row r="20" spans="1:10" s="37" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131">
-        <v>3</v>
-      </c>
-      <c r="B20" s="132" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="122"/>
+    </row>
+    <row r="20" spans="1:10" s="37" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="153">
+        <v>3</v>
+      </c>
+      <c r="B20" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="158" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="151" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="125"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="122"/>
     </row>
     <row r="21" spans="1:10" s="37" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131">
+      <c r="A21" s="153">
         <v>4</v>
       </c>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="158" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="151" t="s">
         <v>367</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="151" t="s">
         <v>368</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="I21" s="134"/>
-      <c r="J21" s="125"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="1:10" s="37" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131">
+      <c r="A22" s="153">
         <v>5</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="155" t="s">
         <v>373</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="151" t="s">
         <v>377</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="122"/>
     </row>
     <row r="23" spans="1:10" s="37" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="131">
+      <c r="A23" s="153">
         <v>6</v>
       </c>
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="158" t="s">
         <v>374</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="151" t="s">
         <v>379</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="151" t="s">
         <v>380</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="I23" s="134"/>
-      <c r="J23" s="125"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="122"/>
     </row>
     <row r="24" spans="1:10" s="37" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="131">
+      <c r="A24" s="153">
         <v>7</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="158" t="s">
         <v>375</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="151" t="s">
         <v>459</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="151" t="s">
         <v>381</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="156" t="s">
         <v>226</v>
       </c>
-      <c r="I24" s="134"/>
-      <c r="J24" s="125"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="122"/>
     </row>
     <row r="25" spans="1:10" s="37" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131">
+      <c r="A25" s="127">
         <v>8</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="128" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="130" t="s">
         <v>376</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -4743,14 +4775,14 @@
       <c r="H25" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="125"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="122"/>
     </row>
     <row r="26" spans="1:10" s="39" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131">
+      <c r="A26" s="127">
         <v>9</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -4771,14 +4803,14 @@
       <c r="H26" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="126"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="123"/>
     </row>
     <row r="27" spans="1:10" s="39" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="131">
+      <c r="A27" s="127">
         <v>10</v>
       </c>
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -4799,14 +4831,14 @@
       <c r="H27" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="126"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="123"/>
     </row>
     <row r="28" spans="1:10" s="39" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="131">
+      <c r="A28" s="127">
         <v>11</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -4827,14 +4859,14 @@
       <c r="H28" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="125"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="122"/>
     </row>
     <row r="29" spans="1:10" s="39" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="131">
+      <c r="A29" s="127">
         <v>12</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -4855,14 +4887,14 @@
       <c r="H29" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="125"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="1:10" s="39" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="131">
+      <c r="A30" s="127">
         <v>13</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -4883,14 +4915,14 @@
       <c r="H30" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="126"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="123"/>
     </row>
     <row r="31" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="131">
+      <c r="A31" s="127">
         <v>14</v>
       </c>
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4911,14 +4943,14 @@
       <c r="H31" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="I31" s="134"/>
-      <c r="J31" s="126"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="123"/>
     </row>
     <row r="32" spans="1:10" s="39" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="131">
+      <c r="A32" s="127">
         <v>15</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -4939,40 +4971,40 @@
       <c r="H32" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="I32" s="134"/>
-      <c r="J32" s="126"/>
-    </row>
-    <row r="33" spans="1:10" s="148" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="142">
+      <c r="I32" s="129"/>
+      <c r="J32" s="123"/>
+    </row>
+    <row r="33" spans="1:10" s="143" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="137">
         <v>16</v>
       </c>
-      <c r="B33" s="143" t="s">
+      <c r="B33" s="138" t="s">
         <v>395</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="144" t="s">
+      <c r="D33" s="139" t="s">
         <v>391</v>
       </c>
-      <c r="E33" s="144" t="s">
+      <c r="E33" s="139" t="s">
         <v>392</v>
       </c>
-      <c r="F33" s="144" t="s">
+      <c r="F33" s="139" t="s">
         <v>281</v>
       </c>
-      <c r="G33" s="144" t="s">
+      <c r="G33" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="145"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="142"/>
     </row>
     <row r="34" spans="1:10" s="39" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="131">
+      <c r="A34" s="127">
         <v>17</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -4991,14 +5023,14 @@
         <v>218</v>
       </c>
       <c r="H34" s="36"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="126"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="35" spans="1:10" s="39" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131">
+      <c r="A35" s="127">
         <v>18</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="128" t="s">
         <v>395</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -5017,14 +5049,14 @@
         <v>218</v>
       </c>
       <c r="H35" s="36"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="126"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="123"/>
     </row>
     <row r="36" spans="1:10" s="39" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131">
+      <c r="A36" s="127">
         <v>19</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -5045,14 +5077,14 @@
       <c r="H36" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I36" s="134"/>
-      <c r="J36" s="126"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="123"/>
     </row>
     <row r="37" spans="1:10" s="39" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131">
+      <c r="A37" s="127">
         <v>20</v>
       </c>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -5073,14 +5105,14 @@
       <c r="H37" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I37" s="134"/>
-      <c r="J37" s="126"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="123"/>
     </row>
     <row r="38" spans="1:10" s="39" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="131">
+      <c r="A38" s="127">
         <v>21</v>
       </c>
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -5101,14 +5133,14 @@
       <c r="H38" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I38" s="134"/>
-      <c r="J38" s="126"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="123"/>
     </row>
     <row r="39" spans="1:10" s="39" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="131">
+      <c r="A39" s="127">
         <v>22</v>
       </c>
-      <c r="B39" s="132" t="s">
+      <c r="B39" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -5129,14 +5161,14 @@
       <c r="H39" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="I39" s="134"/>
-      <c r="J39" s="126"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="123"/>
     </row>
     <row r="40" spans="1:10" s="39" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="131">
+      <c r="A40" s="127">
         <v>23</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -5157,14 +5189,14 @@
       <c r="H40" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I40" s="134"/>
-      <c r="J40" s="126"/>
-    </row>
-    <row r="41" spans="1:10" s="39" customFormat="1" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="131">
+      <c r="I40" s="129"/>
+      <c r="J40" s="123"/>
+    </row>
+    <row r="41" spans="1:10" s="39" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="127">
         <v>24</v>
       </c>
-      <c r="B41" s="132" t="s">
+      <c r="B41" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -5185,14 +5217,14 @@
       <c r="H41" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I41" s="134"/>
-      <c r="J41" s="126"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="123"/>
     </row>
     <row r="42" spans="1:10" s="39" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="131">
+      <c r="A42" s="127">
         <v>25</v>
       </c>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -5213,14 +5245,14 @@
       <c r="H42" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I42" s="134"/>
-      <c r="J42" s="126"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="123"/>
     </row>
     <row r="43" spans="1:10" s="39" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131">
+      <c r="A43" s="127">
         <v>26</v>
       </c>
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -5241,14 +5273,14 @@
       <c r="H43" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I43" s="134"/>
-      <c r="J43" s="126"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="123"/>
     </row>
     <row r="44" spans="1:10" s="39" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="131">
+      <c r="A44" s="127">
         <v>27</v>
       </c>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="128" t="s">
         <v>396</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -5269,14 +5301,14 @@
       <c r="H44" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I44" s="134"/>
-      <c r="J44" s="126"/>
-    </row>
-    <row r="45" spans="1:10" s="39" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="131">
+      <c r="I44" s="129"/>
+      <c r="J44" s="123"/>
+    </row>
+    <row r="45" spans="1:10" s="39" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="127">
         <v>28</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="131" t="s">
         <v>396</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -5297,8 +5329,8 @@
       <c r="H45" s="36" t="s">
         <v>399</v>
       </c>
-      <c r="I45" s="134"/>
-      <c r="J45" s="126"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="123"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5318,21 +5350,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="10" width="10.25" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="28.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.25" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="17.75" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="3" width="22.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="73" width="15.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="13" width="27.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="13" width="21.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5365,7 +5397,7 @@
       <c r="A2" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="132" t="s">
         <v>369</v>
       </c>
       <c r="C2" s="1"/>
@@ -5385,7 +5417,7 @@
       <c r="A3" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="132" t="s">
         <v>370</v>
       </c>
       <c r="C3" s="1"/>
@@ -5405,7 +5437,7 @@
       <c r="A4" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="132" t="s">
         <v>371</v>
       </c>
       <c r="C4" s="1"/>
@@ -5425,7 +5457,7 @@
       <c r="A5" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="132" t="s">
         <v>372</v>
       </c>
       <c r="C5" s="1"/>
@@ -5445,7 +5477,7 @@
       <c r="A6" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="132" t="s">
         <v>373</v>
       </c>
       <c r="C6" s="1"/>
@@ -5465,7 +5497,7 @@
       <c r="A7" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="132" t="s">
         <v>374</v>
       </c>
       <c r="C7" s="1"/>
@@ -5485,7 +5517,7 @@
       <c r="A8" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="132" t="s">
         <v>375</v>
       </c>
       <c r="C8" s="1"/>
@@ -5505,7 +5537,7 @@
       <c r="A9" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="132" t="s">
         <v>376</v>
       </c>
       <c r="C9" s="1"/>
@@ -5521,7 +5553,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>435</v>
       </c>
@@ -5543,7 +5575,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>436</v>
       </c>
@@ -5565,7 +5597,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>437</v>
       </c>
@@ -5607,7 +5639,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>439</v>
       </c>
@@ -5670,22 +5702,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="144" t="s">
         <v>442</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="150" t="s">
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="152" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="138" t="s">
+      <c r="G17" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="133" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5751,7 +5783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>446</v>
       </c>
@@ -5821,7 +5853,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>449</v>
       </c>
@@ -5871,11 +5903,11 @@
       <c r="A26" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="136" t="s">
         <v>416</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="135" t="s">
         <v>508</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -5899,7 +5931,7 @@
         <v>423</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="134" t="s">
         <v>509</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -5919,23 +5951,23 @@
       <c r="A28" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="136" t="s">
         <v>422</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="134" t="s">
         <v>508</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5947,19 +5979,19 @@
         <v>511</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="139" t="s">
+      <c r="D29" s="134" t="s">
         <v>510</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5973,9 +6005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6019,18 +6051,16 @@
       <c r="B2" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="4"/>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>112</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="519">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2070,10 +2070,13 @@
     <t>STT(+A17:J21TC)</t>
   </si>
   <si>
+    <t xml:space="preserve">Failed : TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed : TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
   </si>
   <si>
     <t xml:space="preserve">Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
@@ -6007,7 +6010,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6044,7 +6047,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>288</v>
       </c>
@@ -6057,10 +6060,10 @@
         <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>514</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">

--- a/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
+++ b/src/test/java/com/utc/flowershop/testData/TestData_VS1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="5970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Design" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="515">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -2074,18 +2074,6 @@
   </si>
   <si>
     <t>IE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase không thể thực hiện được || Không có có TenDN &gt; 30 ký tự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đăng nhập không thành công khi tên tài khoản , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han </t>
-  </si>
-  <si>
-    <t>Đăng nhập không thành công khi tên tài khoản &lt; 30 ký tự có trong CSDL , mật khẩu = 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
-  </si>
-  <si>
-    <t>Đăng nhập không thành công khi tên tài khoản = 30 ký tự có trong CSDL , mật khẩu &lt; 30 ký tự có trong CSDL || Ten dang ky, mat khau bị gioi han</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2253,6 +2241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,7 +2422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2864,6 +2858,23 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5353,9 +5364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5578,25 +5589,25 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:8" s="163" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="159" t="s">
         <v>436</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="161" t="s">
         <v>465</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="165" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6008,7 +6019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView zoomScale="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
